--- a/Fourth Year/SEM VIII/Services Science & Service Operational Management - Prof. Anurag Nigam/Ppt's/CSBS_Inclass_Logistic_Descrete.xlsx
+++ b/Fourth Year/SEM VIII/Services Science & Service Operational Management - Prof. Anurag Nigam/Ppt's/CSBS_Inclass_Logistic_Descrete.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACFB97C-4525-4891-B999-A9BDB9F0815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492"/>
   </bookViews>
   <sheets>
     <sheet name="Discrete (3)" sheetId="7" r:id="rId1"/>
     <sheet name="D3" sheetId="4" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="Call">'Discrete (3)'!$F$46</definedName>
     <definedName name="Msg">'Discrete (3)'!$G$46</definedName>
@@ -33,7 +35,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Discrete (3)'!$J$50</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Discrete (3)'!$H$71</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
@@ -49,12 +51,12 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Choices</t>
   </si>
@@ -141,24 +143,12 @@
   </si>
   <si>
     <t>Determine the Score for each of the eight types of Service elements combinations</t>
-  </si>
-  <si>
-    <t>WEF</t>
-  </si>
-  <si>
-    <t>WEL</t>
-  </si>
-  <si>
-    <t>Customers has to adjust his/her preffered time to welcome service engineer</t>
-  </si>
-  <si>
-    <t>Customers open to welcome service engineer at his/her preffered time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -285,22 +275,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,14 +310,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,13 +348,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -521,13 +490,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -687,13 +650,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -837,24 +794,18 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>332961</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>75507</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>79193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="608542" y="14479588"/>
-          <a:ext cx="10122544" cy="1219565"/>
+          <a:off x="609600" y="14389100"/>
+          <a:ext cx="10340561" cy="1031693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,27 +913,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>NPS = 0, PS = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-1.38629559</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>, so Customers in</a:t>
+            <a:t>NPS = 0, PS = –1.38, so Customers in</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1200" baseline="0"/>
@@ -999,47 +930,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Call= </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0.38011615</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t> and Msg = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2.577340112</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>, so customers here prefer to message their complain and the difference between them is 2.197223962. </a:t>
+            <a:t>Call= 0.38 and Msg = 2.57, so customers here prefer to message their complain and the difference between them is 2.19. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1048,67 +939,27 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>SEF = </a:t>
+            <a:t>SEF = 2.07 and SEL = 0.69, so </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>2.075664462</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t> and SEL = </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>0.6893698</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1200"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>, so </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>customers here prefer Service Engineer to visit as per his / her time and the difference between them is 1.386294662</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="pearl"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1187,23 +1038,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1239,23 +1073,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1431,26 +1248,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B31:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>0</v>
       </c>
@@ -1464,12 +1279,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
@@ -1478,7 +1293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
         <v>20</v>
       </c>
@@ -1492,12 +1307,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1506,12 +1321,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1520,12 +1335,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>14</v>
@@ -1534,36 +1349,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M38" s="13"/>
     </row>
-    <row r="39" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
         <v>23</v>
       </c>
@@ -1571,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:19" ht="21" x14ac:dyDescent="0.4">
       <c r="B42" s="5" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1392,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1608,12 +1411,6 @@
       <c r="I45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>30</v>
-      </c>
       <c r="N45" s="8" t="s">
         <v>10</v>
       </c>
@@ -1633,28 +1430,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C46" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>-1.3862955907510783</v>
-      </c>
-      <c r="F46" s="10">
-        <v>0.38011615034017548</v>
-      </c>
-      <c r="G46" s="10">
-        <v>2.577340112237871</v>
-      </c>
-      <c r="H46" s="10">
-        <v>2.0756644617465705</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0.68936979506504148</v>
-      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
       <c r="M46" s="9" t="s">
         <v>2</v>
       </c>
@@ -1677,7 +1462,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="D47" s="11" t="s">
         <v>3</v>
       </c>
@@ -1715,7 +1500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>0</v>
       </c>
@@ -1738,35 +1523,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
         <f>PS+Msg+SEL</f>
-        <v>1.8804143165518341</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7">
         <f>EXP(D50)</f>
-        <v>6.5562206502872105</v>
+        <v>1</v>
       </c>
       <c r="F50" s="7">
         <f>E50/$E$58</f>
-        <v>3.5999953570892626E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G50" s="7">
         <f>LN(F50)</f>
-        <v>-3.3242376302242858</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H50" s="7">
         <f>G50*C50</f>
-        <v>-3.3242376302242858</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="2" t="s">
         <v>20</v>
       </c>
@@ -1775,166 +1560,166 @@
       </c>
       <c r="D51" s="7">
         <f>PS+Msg+SEF</f>
-        <v>3.2667089832333631</v>
+        <v>0</v>
       </c>
       <c r="E51" s="7">
         <f t="shared" ref="E51:E57" si="0">EXP(D51)</f>
-        <v>26.224890614468162</v>
+        <v>1</v>
       </c>
       <c r="F51" s="7">
         <f t="shared" ref="F51:F57" si="1">E51/$E$58</f>
-        <v>0.14399985828439643</v>
+        <v>0.125</v>
       </c>
       <c r="G51" s="7">
         <f t="shared" ref="G51:G57" si="2">LN(F51)</f>
-        <v>-1.9379429635427565</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H51" s="7">
         <f t="shared" ref="H51:H57" si="3">G51*C51</f>
-        <v>-3.875885927085513</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-4.1588830833596715</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="7">
         <f>PS+Call+SEL</f>
-        <v>-0.31680964534586131</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7">
         <f t="shared" si="0"/>
-        <v>0.72846940947102357</v>
+        <v>1</v>
       </c>
       <c r="F52" s="7">
         <f t="shared" si="1"/>
-        <v>3.9999973029619705E-3</v>
+        <v>0.125</v>
       </c>
       <c r="G52" s="7">
         <f t="shared" si="2"/>
-        <v>-5.5214615921219812</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H52" s="7">
         <f t="shared" si="3"/>
-        <v>-5.5214615921219812</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
         <f>PS+Call+SEF</f>
-        <v>1.0694850213356677</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7">
         <f t="shared" si="0"/>
-        <v>2.9138785282534552</v>
+        <v>1</v>
       </c>
       <c r="F53" s="7">
         <f t="shared" si="1"/>
-        <v>1.5999994100831545E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G53" s="7">
         <f t="shared" si="2"/>
-        <v>-4.1351669254404522</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H53" s="7">
         <f t="shared" si="3"/>
-        <v>-8.2703338508809043</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54" s="7">
         <f>NPS+Msg+SEL</f>
-        <v>3.2667099073029124</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7">
         <f t="shared" si="0"/>
-        <v>26.224914848102209</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7">
         <f t="shared" si="1"/>
-        <v>0.14399999135034205</v>
+        <v>0.125</v>
       </c>
       <c r="G54" s="7">
         <f t="shared" si="2"/>
-        <v>-1.9379420394732072</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H54" s="7">
         <f t="shared" si="3"/>
-        <v>-1.9379420394732072</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-4.1588830833596715</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B55" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C55" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D55" s="7">
         <f>NPS+Msg+SEF</f>
-        <v>4.6530045739844414</v>
+        <v>0</v>
       </c>
       <c r="E55" s="7">
         <f t="shared" si="0"/>
-        <v>104.89969144572552</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7">
         <f t="shared" si="1"/>
-        <v>0.5760001414048882</v>
+        <v>0.125</v>
       </c>
       <c r="G55" s="7">
         <f t="shared" si="2"/>
-        <v>-0.55164737279167841</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H55" s="7">
         <f t="shared" si="3"/>
-        <v>-0.55164737279167841</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-10.397207708399179</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="7">
         <f>NPS+Call+SEL</f>
-        <v>1.069485945405217</v>
+        <v>0</v>
       </c>
       <c r="E56" s="7">
         <f t="shared" si="0"/>
-        <v>2.9138812208811178</v>
+        <v>1</v>
       </c>
       <c r="F56" s="7">
         <f t="shared" si="1"/>
-        <v>1.6000008885945716E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G56" s="7">
         <f t="shared" si="2"/>
-        <v>-4.1351660013709024</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H56" s="7">
         <f t="shared" si="3"/>
-        <v>-4.1351660013709024</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1943,36 +1728,36 @@
       </c>
       <c r="D57" s="7">
         <f>NPS+Call+SEF</f>
-        <v>2.455780612086746</v>
+        <v>0</v>
       </c>
       <c r="E57" s="7">
         <f t="shared" si="0"/>
-        <v>11.655528445006295</v>
+        <v>1</v>
       </c>
       <c r="F57" s="7">
         <f t="shared" si="1"/>
-        <v>6.4000055099741562E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G57" s="7">
         <f t="shared" si="2"/>
-        <v>-2.7488713346893738</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="3"/>
-        <v>-2.7488713346893738</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E58" s="12">
         <f>SUM(E50:E57)</f>
-        <v>182.11747516219498</v>
+        <v>8</v>
       </c>
       <c r="H58" s="12">
         <f>SUM(H50:H57)</f>
-        <v>-30.365545748637842</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-20.794415416798358</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +1780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
         <v>26</v>
       </c>
@@ -2004,26 +1789,26 @@
       </c>
       <c r="D63" s="7">
         <f>PS+Msg+SEL</f>
-        <v>1.8804143165518341</v>
+        <v>0</v>
       </c>
       <c r="E63" s="7">
         <f>EXP(D63)</f>
-        <v>6.5562206502872105</v>
+        <v>1</v>
       </c>
       <c r="F63" s="7">
         <f>E63/$E$71</f>
-        <v>3.5999953570892626E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G63" s="7">
         <f>LN(F63)</f>
-        <v>-3.3242376302242858</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H63" s="7">
         <f>G63*C63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>20</v>
       </c>
@@ -2032,26 +1817,26 @@
       </c>
       <c r="D64" s="7">
         <f>PS+Msg+SEF</f>
-        <v>3.2667089832333631</v>
+        <v>0</v>
       </c>
       <c r="E64" s="7">
         <f t="shared" ref="E64:E70" si="4">EXP(D64)</f>
-        <v>26.224890614468162</v>
+        <v>1</v>
       </c>
       <c r="F64" s="7">
         <f t="shared" ref="F64:F70" si="5">E64/$E$71</f>
-        <v>0.14399985828439643</v>
+        <v>0.125</v>
       </c>
       <c r="G64" s="7">
         <f t="shared" ref="G64:G70" si="6">LN(F64)</f>
-        <v>-1.9379429635427565</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H64" s="7">
         <f t="shared" ref="H64:H70" si="7">G64*C64</f>
-        <v>-3.875885927085513</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-4.1588830833596715</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B65" s="2" t="s">
         <v>24</v>
       </c>
@@ -2060,26 +1845,26 @@
       </c>
       <c r="D65" s="7">
         <f>PS+Call+SEL</f>
-        <v>-0.31680964534586131</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7">
         <f t="shared" si="4"/>
-        <v>0.72846940947102357</v>
+        <v>1</v>
       </c>
       <c r="F65" s="7">
         <f t="shared" si="5"/>
-        <v>3.9999973029619705E-3</v>
+        <v>0.125</v>
       </c>
       <c r="G65" s="7">
         <f t="shared" si="6"/>
-        <v>-5.5214615921219812</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H65" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>21</v>
       </c>
@@ -2088,26 +1873,26 @@
       </c>
       <c r="D66" s="7">
         <f>PS+Call+SEF</f>
-        <v>1.0694850213356677</v>
+        <v>0</v>
       </c>
       <c r="E66" s="7">
         <f t="shared" si="4"/>
-        <v>2.9138785282534552</v>
+        <v>1</v>
       </c>
       <c r="F66" s="7">
         <f t="shared" si="5"/>
-        <v>1.5999994100831545E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G66" s="7">
         <f t="shared" si="6"/>
-        <v>-4.1351669254404522</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H66" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>27</v>
       </c>
@@ -2116,26 +1901,26 @@
       </c>
       <c r="D67" s="7">
         <f>NPS+Msg+SEL</f>
-        <v>3.2667099073029124</v>
+        <v>0</v>
       </c>
       <c r="E67" s="7">
         <f t="shared" si="4"/>
-        <v>26.224914848102209</v>
+        <v>1</v>
       </c>
       <c r="F67" s="7">
         <f t="shared" si="5"/>
-        <v>0.14399999135034205</v>
+        <v>0.125</v>
       </c>
       <c r="G67" s="7">
         <f t="shared" si="6"/>
-        <v>-1.9379420394732072</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H67" s="7">
         <f t="shared" si="7"/>
-        <v>-3.8758840789464144</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-4.1588830833596715</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="2" t="s">
         <v>22</v>
       </c>
@@ -2144,26 +1929,26 @@
       </c>
       <c r="D68" s="7">
         <f>NPS+Msg+SEF</f>
-        <v>4.6530045739844414</v>
+        <v>0</v>
       </c>
       <c r="E68" s="7">
         <f t="shared" si="4"/>
-        <v>104.89969144572552</v>
+        <v>1</v>
       </c>
       <c r="F68" s="7">
         <f t="shared" si="5"/>
-        <v>0.5760001414048882</v>
+        <v>0.125</v>
       </c>
       <c r="G68" s="7">
         <f t="shared" si="6"/>
-        <v>-0.55164737279167841</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H68" s="7">
         <f t="shared" si="7"/>
-        <v>-2.7582368639583921</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>-10.397207708399179</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="2" t="s">
         <v>25</v>
       </c>
@@ -2172,26 +1957,26 @@
       </c>
       <c r="D69" s="7">
         <f>NPS+Call+SEL</f>
-        <v>1.069485945405217</v>
+        <v>0</v>
       </c>
       <c r="E69" s="7">
         <f t="shared" si="4"/>
-        <v>2.9138812208811178</v>
+        <v>1</v>
       </c>
       <c r="F69" s="7">
         <f t="shared" si="5"/>
-        <v>1.6000008885945716E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G69" s="7">
         <f t="shared" si="6"/>
-        <v>-4.1351660013709024</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H69" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B70" s="2" t="s">
         <v>23</v>
       </c>
@@ -2200,33 +1985,33 @@
       </c>
       <c r="D70" s="7">
         <f>NPS+Call+SEF</f>
-        <v>2.455780612086746</v>
+        <v>0</v>
       </c>
       <c r="E70" s="7">
         <f t="shared" si="4"/>
-        <v>11.655528445006295</v>
+        <v>1</v>
       </c>
       <c r="F70" s="7">
         <f t="shared" si="5"/>
-        <v>6.4000055099741562E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G70" s="7">
         <f t="shared" si="6"/>
-        <v>-2.7488713346893738</v>
+        <v>-2.0794415416798357</v>
       </c>
       <c r="H70" s="7">
         <f t="shared" si="7"/>
-        <v>-2.7488713346893738</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2.0794415416798357</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E71" s="12">
         <f>SUM(E63:E70)</f>
-        <v>182.11747516219498</v>
+        <v>8</v>
       </c>
       <c r="H71" s="12">
         <f>SUM(H63:H70)</f>
-        <v>-13.258878204679695</v>
+        <v>-20.794415416798358</v>
       </c>
     </row>
   </sheetData>
@@ -2237,20 +2022,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C14"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2258,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2266,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2274,7 +2059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
@@ -2282,7 +2067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2290,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2306,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2314,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
